--- a/file_inventory.xlsx
+++ b/file_inventory.xlsx
@@ -2362,7 +2362,7 @@
         <v>168</v>
       </c>
       <c r="D2" s="2">
-        <v>45058.63375288194</v>
+        <v>45058.63375288547</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -2385,7 +2385,7 @@
         <v>168</v>
       </c>
       <c r="D3" s="2">
-        <v>45058.63375288194</v>
+        <v>45058.63375288547</v>
       </c>
       <c r="E3" t="s">
         <v>170</v>
@@ -2408,7 +2408,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="2">
-        <v>45058.63375289352</v>
+        <v>45058.633752897</v>
       </c>
       <c r="E4" t="s">
         <v>171</v>
@@ -2431,7 +2431,7 @@
         <v>168</v>
       </c>
       <c r="D5" s="2">
-        <v>45058.63375298611</v>
+        <v>45058.63375298935</v>
       </c>
       <c r="E5" t="s">
         <v>172</v>
@@ -2454,7 +2454,7 @@
         <v>168</v>
       </c>
       <c r="D6" s="2">
-        <v>45058.63375298611</v>
+        <v>45058.63375298935</v>
       </c>
       <c r="E6" t="s">
         <v>173</v>
@@ -2477,7 +2477,7 @@
         <v>168</v>
       </c>
       <c r="D7" s="2">
-        <v>45058.63375299769</v>
+        <v>45058.63375300091</v>
       </c>
       <c r="E7" t="s">
         <v>174</v>
@@ -2500,7 +2500,7 @@
         <v>168</v>
       </c>
       <c r="D8" s="2">
-        <v>45058.63375300926</v>
+        <v>45058.63375301244</v>
       </c>
       <c r="E8" t="s">
         <v>175</v>
@@ -2523,7 +2523,7 @@
         <v>168</v>
       </c>
       <c r="D9" s="2">
-        <v>45058.63375302083</v>
+        <v>45058.63375302398</v>
       </c>
       <c r="E9" t="s">
         <v>176</v>
@@ -2546,7 +2546,7 @@
         <v>168</v>
       </c>
       <c r="D10" s="2">
-        <v>45058.63375303241</v>
+        <v>45058.63375303553</v>
       </c>
       <c r="E10" t="s">
         <v>177</v>
@@ -2569,7 +2569,7 @@
         <v>168</v>
       </c>
       <c r="D11" s="2">
-        <v>45058.63375303241</v>
+        <v>45058.63375303553</v>
       </c>
       <c r="E11" t="s">
         <v>178</v>
@@ -2592,7 +2592,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="2">
-        <v>45058.63375300926</v>
+        <v>45058.63375301244</v>
       </c>
       <c r="E12" t="s">
         <v>179</v>
@@ -2615,7 +2615,7 @@
         <v>168</v>
       </c>
       <c r="D13" s="2">
-        <v>45058.63375304399</v>
+        <v>45058.63375304707</v>
       </c>
       <c r="E13" t="s">
         <v>180</v>
@@ -2638,7 +2638,7 @@
         <v>168</v>
       </c>
       <c r="D14" s="2">
-        <v>45058.63375304399</v>
+        <v>45058.63375304707</v>
       </c>
       <c r="E14" t="s">
         <v>181</v>
@@ -2661,7 +2661,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="2">
-        <v>45058.63375305555</v>
+        <v>45058.63375305861</v>
       </c>
       <c r="E15" t="s">
         <v>182</v>
@@ -2684,7 +2684,7 @@
         <v>168</v>
       </c>
       <c r="D16" s="2">
-        <v>45058.63375305555</v>
+        <v>45058.63375305861</v>
       </c>
       <c r="E16" t="s">
         <v>183</v>
@@ -2707,7 +2707,7 @@
         <v>168</v>
       </c>
       <c r="D17" s="2">
-        <v>45058.63375306713</v>
+        <v>45058.63375307015</v>
       </c>
       <c r="E17" t="s">
         <v>184</v>
@@ -2730,7 +2730,7 @@
         <v>168</v>
       </c>
       <c r="D18" s="2">
-        <v>45058.63375306713</v>
+        <v>45058.63375307015</v>
       </c>
       <c r="E18" t="s">
         <v>185</v>
@@ -2753,7 +2753,7 @@
         <v>168</v>
       </c>
       <c r="D19" s="2">
-        <v>45058.63375307871</v>
+        <v>45058.6337530817</v>
       </c>
       <c r="E19" t="s">
         <v>186</v>
@@ -2776,7 +2776,7 @@
         <v>168</v>
       </c>
       <c r="D20" s="2">
-        <v>45058.63375311343</v>
+        <v>45058.63375311633</v>
       </c>
       <c r="E20" t="s">
         <v>187</v>
@@ -2799,7 +2799,7 @@
         <v>168</v>
       </c>
       <c r="D21" s="2">
-        <v>45058.63375309027</v>
+        <v>45058.63375309325</v>
       </c>
       <c r="E21" t="s">
         <v>188</v>
@@ -2822,7 +2822,7 @@
         <v>168</v>
       </c>
       <c r="D22" s="2">
-        <v>45058.63375310185</v>
+        <v>45058.63375310478</v>
       </c>
       <c r="E22" t="s">
         <v>189</v>
@@ -2845,7 +2845,7 @@
         <v>168</v>
       </c>
       <c r="D23" s="2">
-        <v>45058.633753125</v>
+        <v>45058.63375312787</v>
       </c>
       <c r="E23" t="s">
         <v>190</v>
@@ -2868,7 +2868,7 @@
         <v>168</v>
       </c>
       <c r="D24" s="2">
-        <v>45058.63375313657</v>
+        <v>45058.63375313941</v>
       </c>
       <c r="E24" t="s">
         <v>191</v>
@@ -2891,7 +2891,7 @@
         <v>168</v>
       </c>
       <c r="D25" s="2">
-        <v>45058.63375313657</v>
+        <v>45058.63375313941</v>
       </c>
       <c r="E25" t="s">
         <v>192</v>
@@ -2914,7 +2914,7 @@
         <v>168</v>
       </c>
       <c r="D26" s="2">
-        <v>45058.63375314815</v>
+        <v>45058.63375315095</v>
       </c>
       <c r="E26" t="s">
         <v>193</v>
@@ -2937,7 +2937,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="2">
-        <v>45058.63375314815</v>
+        <v>45058.63375315095</v>
       </c>
       <c r="E27" t="s">
         <v>194</v>
@@ -2960,7 +2960,7 @@
         <v>168</v>
       </c>
       <c r="D28" s="2">
-        <v>45058.63375315972</v>
+        <v>45058.6337531625</v>
       </c>
       <c r="E28" t="s">
         <v>195</v>
@@ -2983,7 +2983,7 @@
         <v>168</v>
       </c>
       <c r="D29" s="2">
-        <v>45058.63375320602</v>
+        <v>45058.63375320867</v>
       </c>
       <c r="E29" t="s">
         <v>196</v>
@@ -3006,7 +3006,7 @@
         <v>168</v>
       </c>
       <c r="D30" s="2">
-        <v>45058.63375320602</v>
+        <v>45058.63375320867</v>
       </c>
       <c r="E30" t="s">
         <v>197</v>
@@ -3029,7 +3029,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="2">
-        <v>45058.63375321759</v>
+        <v>45058.63375321987</v>
       </c>
       <c r="E31" t="s">
         <v>198</v>
@@ -3052,7 +3052,7 @@
         <v>168</v>
       </c>
       <c r="D32" s="2">
-        <v>45058.63375322917</v>
+        <v>45058.63375323144</v>
       </c>
       <c r="E32" t="s">
         <v>199</v>
@@ -3075,7 +3075,7 @@
         <v>168</v>
       </c>
       <c r="D33" s="2">
-        <v>45058.63375322917</v>
+        <v>45058.63375323144</v>
       </c>
       <c r="E33" t="s">
         <v>200</v>
@@ -3098,7 +3098,7 @@
         <v>168</v>
       </c>
       <c r="D34" s="2">
-        <v>45058.63375324074</v>
+        <v>45058.63375324298</v>
       </c>
       <c r="E34" t="s">
         <v>201</v>
@@ -3121,7 +3121,7 @@
         <v>168</v>
       </c>
       <c r="D35" s="2">
-        <v>45058.63375324074</v>
+        <v>45058.63375324298</v>
       </c>
       <c r="E35" t="s">
         <v>202</v>
@@ -3144,7 +3144,7 @@
         <v>168</v>
       </c>
       <c r="D36" s="2">
-        <v>45058.63375324074</v>
+        <v>45058.63375324298</v>
       </c>
       <c r="E36" t="s">
         <v>203</v>
@@ -3167,7 +3167,7 @@
         <v>168</v>
       </c>
       <c r="D37" s="2">
-        <v>45058.63375325232</v>
+        <v>45058.63375325451</v>
       </c>
       <c r="E37" t="s">
         <v>204</v>
@@ -3190,7 +3190,7 @@
         <v>168</v>
       </c>
       <c r="D38" s="2">
-        <v>45058.63375325232</v>
+        <v>45058.63375325451</v>
       </c>
       <c r="E38" t="s">
         <v>205</v>
@@ -3213,7 +3213,7 @@
         <v>168</v>
       </c>
       <c r="D39" s="2">
-        <v>45058.63375326389</v>
+        <v>45058.63375326606</v>
       </c>
       <c r="E39" t="s">
         <v>206</v>
@@ -3236,7 +3236,7 @@
         <v>168</v>
       </c>
       <c r="D40" s="2">
-        <v>45058.63375329861</v>
+        <v>45058.6337533007</v>
       </c>
       <c r="E40" t="s">
         <v>207</v>
@@ -3259,7 +3259,7 @@
         <v>168</v>
       </c>
       <c r="D41" s="2">
-        <v>45058.63375331018</v>
+        <v>45058.63375331224</v>
       </c>
       <c r="E41" t="s">
         <v>208</v>
@@ -3282,7 +3282,7 @@
         <v>168</v>
       </c>
       <c r="D42" s="2">
-        <v>45058.63375331018</v>
+        <v>45058.63375331224</v>
       </c>
       <c r="E42" t="s">
         <v>209</v>
@@ -3305,7 +3305,7 @@
         <v>168</v>
       </c>
       <c r="D43" s="2">
-        <v>45058.63375332176</v>
+        <v>45058.63375332377</v>
       </c>
       <c r="E43" t="s">
         <v>210</v>
@@ -3328,7 +3328,7 @@
         <v>168</v>
       </c>
       <c r="D44" s="2">
-        <v>45058.63375336806</v>
+        <v>45058.63375336996</v>
       </c>
       <c r="E44" t="s">
         <v>211</v>
@@ -3351,7 +3351,7 @@
         <v>168</v>
       </c>
       <c r="D45" s="2">
-        <v>45058.63375336806</v>
+        <v>45058.63375336996</v>
       </c>
       <c r="E45" t="s">
         <v>212</v>
@@ -3374,7 +3374,7 @@
         <v>168</v>
       </c>
       <c r="D46" s="2">
-        <v>45058.63375337963</v>
+        <v>45058.63375338149</v>
       </c>
       <c r="E46" t="s">
         <v>213</v>
@@ -3397,7 +3397,7 @@
         <v>168</v>
       </c>
       <c r="D47" s="2">
-        <v>45058.63375337963</v>
+        <v>45058.63375338149</v>
       </c>
       <c r="E47" t="s">
         <v>214</v>
@@ -3420,7 +3420,7 @@
         <v>168</v>
       </c>
       <c r="D48" s="2">
-        <v>45058.6337533912</v>
+        <v>45058.63375339303</v>
       </c>
       <c r="E48" t="s">
         <v>215</v>
@@ -3443,7 +3443,7 @@
         <v>168</v>
       </c>
       <c r="D49" s="2">
-        <v>45058.6337533912</v>
+        <v>45058.63375339303</v>
       </c>
       <c r="E49" t="s">
         <v>216</v>
@@ -3466,7 +3466,7 @@
         <v>168</v>
       </c>
       <c r="D50" s="2">
-        <v>45058.63375340278</v>
+        <v>45058.63375340458</v>
       </c>
       <c r="E50" t="s">
         <v>217</v>
@@ -3489,7 +3489,7 @@
         <v>168</v>
       </c>
       <c r="D51" s="2">
-        <v>45058.63375340278</v>
+        <v>45058.63375340458</v>
       </c>
       <c r="E51" t="s">
         <v>218</v>
@@ -3512,7 +3512,7 @@
         <v>168</v>
       </c>
       <c r="D52" s="2">
-        <v>45058.63375342593</v>
+        <v>45058.63375342766</v>
       </c>
       <c r="E52" t="s">
         <v>219</v>
@@ -3535,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="D53" s="2">
-        <v>45058.63375342593</v>
+        <v>45058.63375342766</v>
       </c>
       <c r="E53" t="s">
         <v>220</v>
@@ -3558,7 +3558,7 @@
         <v>168</v>
       </c>
       <c r="D54" s="2">
-        <v>45058.6337534375</v>
+        <v>45058.6337534392</v>
       </c>
       <c r="E54" t="s">
         <v>221</v>
@@ -3581,7 +3581,7 @@
         <v>168</v>
       </c>
       <c r="D55" s="2">
-        <v>45058.6337534375</v>
+        <v>45058.6337534392</v>
       </c>
       <c r="E55" t="s">
         <v>222</v>
@@ -3604,7 +3604,7 @@
         <v>168</v>
       </c>
       <c r="D56" s="2">
-        <v>45058.63375344907</v>
+        <v>45058.63375345075</v>
       </c>
       <c r="E56" t="s">
         <v>223</v>
@@ -3627,7 +3627,7 @@
         <v>168</v>
       </c>
       <c r="D57" s="2">
-        <v>45058.63375347222</v>
+        <v>45058.63375347384</v>
       </c>
       <c r="E57" t="s">
         <v>224</v>
@@ -3650,7 +3650,7 @@
         <v>168</v>
       </c>
       <c r="D58" s="2">
-        <v>45058.63375346065</v>
+        <v>45058.63375346229</v>
       </c>
       <c r="E58" t="s">
         <v>225</v>
@@ -3673,7 +3673,7 @@
         <v>168</v>
       </c>
       <c r="D59" s="2">
-        <v>45058.63375346065</v>
+        <v>45058.63375346229</v>
       </c>
       <c r="E59" t="s">
         <v>226</v>
@@ -3696,7 +3696,7 @@
         <v>168</v>
       </c>
       <c r="D60" s="2">
-        <v>45058.63375347222</v>
+        <v>45058.63375347384</v>
       </c>
       <c r="E60" t="s">
         <v>227</v>
@@ -3719,7 +3719,7 @@
         <v>168</v>
       </c>
       <c r="D61" s="2">
-        <v>45058.63375347222</v>
+        <v>45058.63375347384</v>
       </c>
       <c r="E61" t="s">
         <v>228</v>
@@ -3742,7 +3742,7 @@
         <v>168</v>
       </c>
       <c r="D62" s="2">
-        <v>45058.63375349537</v>
+        <v>45058.63375349694</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
@@ -3765,7 +3765,7 @@
         <v>168</v>
       </c>
       <c r="D63" s="2">
-        <v>45058.63375356481</v>
+        <v>45058.63375356618</v>
       </c>
       <c r="E63" t="s">
         <v>230</v>
@@ -3788,7 +3788,7 @@
         <v>168</v>
       </c>
       <c r="D64" s="2">
-        <v>45058.63375357639</v>
+        <v>45058.63375357772</v>
       </c>
       <c r="E64" t="s">
         <v>231</v>
@@ -3811,7 +3811,7 @@
         <v>168</v>
       </c>
       <c r="D65" s="2">
-        <v>45058.63375368056</v>
+        <v>45058.63375368162</v>
       </c>
       <c r="E65" t="s">
         <v>232</v>
@@ -3834,7 +3834,7 @@
         <v>168</v>
       </c>
       <c r="D66" s="2">
-        <v>45058.63375368056</v>
+        <v>45058.63375368162</v>
       </c>
       <c r="E66" t="s">
         <v>233</v>
@@ -3857,7 +3857,7 @@
         <v>168</v>
       </c>
       <c r="D67" s="2">
-        <v>45058.63375369213</v>
+        <v>45058.63375369316</v>
       </c>
       <c r="E67" t="s">
         <v>234</v>
@@ -3880,7 +3880,7 @@
         <v>168</v>
       </c>
       <c r="D68" s="2">
-        <v>45058.63375369213</v>
+        <v>45058.63375369316</v>
       </c>
       <c r="E68" t="s">
         <v>235</v>
@@ -3903,7 +3903,7 @@
         <v>168</v>
       </c>
       <c r="D69" s="2">
-        <v>45058.6337537037</v>
+        <v>45058.63375370471</v>
       </c>
       <c r="E69" t="s">
         <v>236</v>
@@ -3926,7 +3926,7 @@
         <v>168</v>
       </c>
       <c r="D70" s="2">
-        <v>45058.6337537037</v>
+        <v>45058.63375370471</v>
       </c>
       <c r="E70" t="s">
         <v>237</v>
@@ -3949,7 +3949,7 @@
         <v>168</v>
       </c>
       <c r="D71" s="2">
-        <v>45167.03392508102</v>
+        <v>45167.0339250834</v>
       </c>
       <c r="E71" t="s">
         <v>238</v>
@@ -3972,7 +3972,7 @@
         <v>168</v>
       </c>
       <c r="D72" s="2">
-        <v>45058.63375373842</v>
+        <v>45058.63375373933</v>
       </c>
       <c r="E72" t="s">
         <v>239</v>
@@ -3995,7 +3995,7 @@
         <v>168</v>
       </c>
       <c r="D73" s="2">
-        <v>45058.63375371528</v>
+        <v>45058.63375371624</v>
       </c>
       <c r="E73" t="s">
         <v>240</v>
@@ -4018,7 +4018,7 @@
         <v>168</v>
       </c>
       <c r="D74" s="2">
-        <v>45058.63375371528</v>
+        <v>45058.63375371624</v>
       </c>
       <c r="E74" t="s">
         <v>241</v>
@@ -4041,7 +4041,7 @@
         <v>168</v>
       </c>
       <c r="D75" s="2">
-        <v>45058.63375375</v>
+        <v>45058.63375375088</v>
       </c>
       <c r="E75" t="s">
         <v>242</v>
@@ -4064,7 +4064,7 @@
         <v>168</v>
       </c>
       <c r="D76" s="2">
-        <v>45058.63375375</v>
+        <v>45058.63375375088</v>
       </c>
       <c r="E76" t="s">
         <v>243</v>
@@ -4087,7 +4087,7 @@
         <v>168</v>
       </c>
       <c r="D77" s="2">
-        <v>45058.63375377315</v>
+        <v>45058.63375377396</v>
       </c>
       <c r="E77" t="s">
         <v>244</v>
@@ -4110,7 +4110,7 @@
         <v>168</v>
       </c>
       <c r="D78" s="2">
-        <v>45058.6337537963</v>
+        <v>45058.63375379705</v>
       </c>
       <c r="E78" t="s">
         <v>245</v>
@@ -4133,7 +4133,7 @@
         <v>168</v>
       </c>
       <c r="D79" s="2">
-        <v>45058.63375380787</v>
+        <v>45058.63375380859</v>
       </c>
       <c r="E79" t="s">
         <v>246</v>
@@ -4156,7 +4156,7 @@
         <v>168</v>
       </c>
       <c r="D80" s="2">
-        <v>45058.63375380787</v>
+        <v>45058.63375380859</v>
       </c>
       <c r="E80" t="s">
         <v>247</v>
@@ -4179,7 +4179,7 @@
         <v>168</v>
       </c>
       <c r="D81" s="2">
-        <v>45058.63375381944</v>
+        <v>45058.63375382014</v>
       </c>
       <c r="E81" t="s">
         <v>248</v>
@@ -4202,7 +4202,7 @@
         <v>168</v>
       </c>
       <c r="D82" s="2">
-        <v>45058.63375383102</v>
+        <v>45058.63375383168</v>
       </c>
       <c r="E82" t="s">
         <v>249</v>
@@ -4225,7 +4225,7 @@
         <v>168</v>
       </c>
       <c r="D83" s="2">
-        <v>45058.63375383102</v>
+        <v>45058.63375383168</v>
       </c>
       <c r="E83" t="s">
         <v>250</v>
@@ -4248,7 +4248,7 @@
         <v>168</v>
       </c>
       <c r="D84" s="2">
-        <v>45058.63375384259</v>
+        <v>45058.63375384322</v>
       </c>
       <c r="E84" t="s">
         <v>251</v>
@@ -4271,7 +4271,7 @@
         <v>168</v>
       </c>
       <c r="D85" s="2">
-        <v>45058.63375387732</v>
+        <v>45058.63375387785</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -4294,7 +4294,7 @@
         <v>168</v>
       </c>
       <c r="D86" s="2">
-        <v>45167.0339275463</v>
+        <v>45167.03392754287</v>
       </c>
       <c r="E86" t="s">
         <v>253</v>
@@ -4317,7 +4317,7 @@
         <v>168</v>
       </c>
       <c r="D87" s="2">
-        <v>45058.63375390046</v>
+        <v>45058.63375390094</v>
       </c>
       <c r="E87" t="s">
         <v>254</v>
@@ -4340,7 +4340,7 @@
         <v>168</v>
       </c>
       <c r="D88" s="2">
-        <v>45100.57375534722</v>
+        <v>45100.57375535042</v>
       </c>
       <c r="E88" t="s">
         <v>255</v>
@@ -4363,7 +4363,7 @@
         <v>168</v>
       </c>
       <c r="D89" s="2">
-        <v>45058.63375307871</v>
+        <v>45058.6337530817</v>
       </c>
       <c r="E89" t="s">
         <v>256</v>
@@ -4386,7 +4386,7 @@
         <v>168</v>
       </c>
       <c r="D90" s="2">
-        <v>45058.63375309027</v>
+        <v>45058.63375309325</v>
       </c>
       <c r="E90" t="s">
         <v>257</v>
@@ -4409,7 +4409,7 @@
         <v>168</v>
       </c>
       <c r="D91" s="2">
-        <v>45167.03391518519</v>
+        <v>45167.03391518235</v>
       </c>
       <c r="E91" t="s">
         <v>258</v>
@@ -4432,7 +4432,7 @@
         <v>168</v>
       </c>
       <c r="D92" s="2">
-        <v>45058.63375309027</v>
+        <v>45058.63375309325</v>
       </c>
       <c r="E92" t="s">
         <v>259</v>
@@ -4455,7 +4455,7 @@
         <v>168</v>
       </c>
       <c r="D93" s="2">
-        <v>45058.633753125</v>
+        <v>45058.63375312787</v>
       </c>
       <c r="E93" t="s">
         <v>260</v>
@@ -4478,7 +4478,7 @@
         <v>168</v>
       </c>
       <c r="D94" s="2">
-        <v>45058.63375310185</v>
+        <v>45058.63375310478</v>
       </c>
       <c r="E94" t="s">
         <v>261</v>
@@ -4501,7 +4501,7 @@
         <v>168</v>
       </c>
       <c r="D95" s="2">
-        <v>45058.63375311343</v>
+        <v>45058.63375311633</v>
       </c>
       <c r="E95" t="s">
         <v>262</v>
@@ -4524,7 +4524,7 @@
         <v>168</v>
       </c>
       <c r="D96" s="2">
-        <v>45140.162613125</v>
+        <v>45140.16261311975</v>
       </c>
       <c r="E96" t="s">
         <v>263</v>
@@ -4547,7 +4547,7 @@
         <v>168</v>
       </c>
       <c r="D97" s="2">
-        <v>45058.633753125</v>
+        <v>45058.63375312787</v>
       </c>
       <c r="E97" t="s">
         <v>264</v>
@@ -4570,7 +4570,7 @@
         <v>168</v>
       </c>
       <c r="D98" s="2">
-        <v>45058.63375315972</v>
+        <v>45058.6337531625</v>
       </c>
       <c r="E98" t="s">
         <v>265</v>
@@ -4593,7 +4593,7 @@
         <v>168</v>
       </c>
       <c r="D99" s="2">
-        <v>45058.6337531713</v>
+        <v>45058.63375317404</v>
       </c>
       <c r="E99" t="s">
         <v>266</v>
@@ -4616,7 +4616,7 @@
         <v>168</v>
       </c>
       <c r="D100" s="2">
-        <v>45058.6337531713</v>
+        <v>45058.63375317404</v>
       </c>
       <c r="E100" t="s">
         <v>267</v>
@@ -4639,7 +4639,7 @@
         <v>168</v>
       </c>
       <c r="D101" s="2">
-        <v>45152.14305783564</v>
+        <v>45152.14305783343</v>
       </c>
       <c r="E101" t="s">
         <v>268</v>
@@ -4662,7 +4662,7 @@
         <v>168</v>
       </c>
       <c r="D102" s="2">
-        <v>45152.14305789352</v>
+        <v>45152.14305789113</v>
       </c>
       <c r="E102" t="s">
         <v>269</v>
@@ -4685,7 +4685,7 @@
         <v>168</v>
       </c>
       <c r="D103" s="2">
-        <v>45058.63375319444</v>
+        <v>45058.63375319713</v>
       </c>
       <c r="E103" t="s">
         <v>270</v>
@@ -4708,7 +4708,7 @@
         <v>168</v>
       </c>
       <c r="D104" s="2">
-        <v>45058.63375326389</v>
+        <v>45058.63375326606</v>
       </c>
       <c r="E104" t="s">
         <v>271</v>
@@ -4731,7 +4731,7 @@
         <v>168</v>
       </c>
       <c r="D105" s="2">
-        <v>45058.63375327546</v>
+        <v>45058.6337532776</v>
       </c>
       <c r="E105" t="s">
         <v>272</v>
@@ -4754,7 +4754,7 @@
         <v>168</v>
       </c>
       <c r="D106" s="2">
-        <v>45058.63375327546</v>
+        <v>45058.6337532776</v>
       </c>
       <c r="E106" t="s">
         <v>273</v>
@@ -4777,7 +4777,7 @@
         <v>168</v>
       </c>
       <c r="D107" s="2">
-        <v>45058.63375328704</v>
+        <v>45058.63375328914</v>
       </c>
       <c r="E107" t="s">
         <v>274</v>
@@ -4800,7 +4800,7 @@
         <v>168</v>
       </c>
       <c r="D108" s="2">
-        <v>45058.63375328704</v>
+        <v>45058.63375328914</v>
       </c>
       <c r="E108" t="s">
         <v>275</v>
@@ -4823,7 +4823,7 @@
         <v>168</v>
       </c>
       <c r="D109" s="2">
-        <v>45058.63375329861</v>
+        <v>45058.6337533007</v>
       </c>
       <c r="E109" t="s">
         <v>276</v>
@@ -4846,7 +4846,7 @@
         <v>168</v>
       </c>
       <c r="D110" s="2">
-        <v>45058.63375332176</v>
+        <v>45058.63375332377</v>
       </c>
       <c r="E110" t="s">
         <v>277</v>
@@ -4869,7 +4869,7 @@
         <v>168</v>
       </c>
       <c r="D111" s="2">
-        <v>45058.63375333334</v>
+        <v>45058.63375333532</v>
       </c>
       <c r="E111" t="s">
         <v>278</v>
@@ -4892,7 +4892,7 @@
         <v>168</v>
       </c>
       <c r="D112" s="2">
-        <v>45058.63375333334</v>
+        <v>45058.63375333532</v>
       </c>
       <c r="E112" t="s">
         <v>279</v>
@@ -4915,7 +4915,7 @@
         <v>168</v>
       </c>
       <c r="D113" s="2">
-        <v>45058.63375333334</v>
+        <v>45058.63375333532</v>
       </c>
       <c r="E113" t="s">
         <v>280</v>
@@ -4938,7 +4938,7 @@
         <v>168</v>
       </c>
       <c r="D114" s="2">
-        <v>45058.6337533449</v>
+        <v>45058.63375334686</v>
       </c>
       <c r="E114" t="s">
         <v>281</v>
@@ -4961,7 +4961,7 @@
         <v>168</v>
       </c>
       <c r="D115" s="2">
-        <v>45058.6337533449</v>
+        <v>45058.63375334686</v>
       </c>
       <c r="E115" t="s">
         <v>282</v>
@@ -4984,7 +4984,7 @@
         <v>168</v>
       </c>
       <c r="D116" s="2">
-        <v>45058.63375335648</v>
+        <v>45058.6337533584</v>
       </c>
       <c r="E116" t="s">
         <v>283</v>
@@ -5007,7 +5007,7 @@
         <v>168</v>
       </c>
       <c r="D117" s="2">
-        <v>45100.57375998842</v>
+        <v>45100.57375999251</v>
       </c>
       <c r="E117" t="s">
         <v>284</v>
@@ -5030,7 +5030,7 @@
         <v>168</v>
       </c>
       <c r="D118" s="2">
-        <v>45058.63375335648</v>
+        <v>45058.6337533584</v>
       </c>
       <c r="E118" t="s">
         <v>285</v>
@@ -5053,7 +5053,7 @@
         <v>168</v>
       </c>
       <c r="D119" s="2">
-        <v>45100.57376019676</v>
+        <v>45100.57376019879</v>
       </c>
       <c r="E119" t="s">
         <v>286</v>
@@ -5076,7 +5076,7 @@
         <v>168</v>
       </c>
       <c r="D120" s="2">
-        <v>45058.63375337963</v>
+        <v>45058.63375338149</v>
       </c>
       <c r="E120" t="s">
         <v>287</v>
@@ -5099,7 +5099,7 @@
         <v>168</v>
       </c>
       <c r="D121" s="2">
-        <v>45058.63375340278</v>
+        <v>45058.63375340458</v>
       </c>
       <c r="E121" t="s">
         <v>288</v>
@@ -5122,7 +5122,7 @@
         <v>168</v>
       </c>
       <c r="D122" s="2">
-        <v>45072.61834797454</v>
+        <v>45072.61834797138</v>
       </c>
       <c r="E122" t="s">
         <v>289</v>
@@ -5145,7 +5145,7 @@
         <v>168</v>
       </c>
       <c r="D123" s="2">
-        <v>45100.57376081018</v>
+        <v>45100.5737608113</v>
       </c>
       <c r="E123" t="s">
         <v>290</v>
@@ -5168,7 +5168,7 @@
         <v>168</v>
       </c>
       <c r="D124" s="2">
-        <v>45058.63375341435</v>
+        <v>45058.63375341612</v>
       </c>
       <c r="E124" t="s">
         <v>291</v>
@@ -5191,7 +5191,7 @@
         <v>168</v>
       </c>
       <c r="D125" s="2">
-        <v>45058.63375341435</v>
+        <v>45058.63375341612</v>
       </c>
       <c r="E125" t="s">
         <v>292</v>
@@ -5214,7 +5214,7 @@
         <v>168</v>
       </c>
       <c r="D126" s="2">
-        <v>45140.16261769676</v>
+        <v>45140.1626176982</v>
       </c>
       <c r="E126" t="s">
         <v>293</v>
@@ -5237,7 +5237,7 @@
         <v>168</v>
       </c>
       <c r="D127" s="2">
-        <v>45150.8119116088</v>
+        <v>45150.81191161175</v>
       </c>
       <c r="E127" t="s">
         <v>294</v>
@@ -5260,7 +5260,7 @@
         <v>168</v>
       </c>
       <c r="D128" s="2">
-        <v>45140.16261774306</v>
+        <v>45140.16261774441</v>
       </c>
       <c r="E128" t="s">
         <v>295</v>
@@ -5283,7 +5283,7 @@
         <v>168</v>
       </c>
       <c r="D129" s="2">
-        <v>45157.13994363426</v>
+        <v>45157.13994363229</v>
       </c>
       <c r="E129" t="s">
         <v>296</v>
@@ -5306,7 +5306,7 @@
         <v>168</v>
       </c>
       <c r="D130" s="2">
-        <v>45058.63375344907</v>
+        <v>45058.63375345075</v>
       </c>
       <c r="E130" t="s">
         <v>297</v>
@@ -5329,7 +5329,7 @@
         <v>168</v>
       </c>
       <c r="D131" s="2">
-        <v>45058.63375363426</v>
+        <v>45058.63375363545</v>
       </c>
       <c r="E131" t="s">
         <v>298</v>
@@ -5352,7 +5352,7 @@
         <v>168</v>
       </c>
       <c r="D132" s="2">
-        <v>45072.61834987268</v>
+        <v>45072.61834987309</v>
       </c>
       <c r="E132" t="s">
         <v>299</v>
@@ -5375,7 +5375,7 @@
         <v>168</v>
       </c>
       <c r="D133" s="2">
-        <v>45058.63375364583</v>
+        <v>45058.63375364699</v>
       </c>
       <c r="E133" t="s">
         <v>300</v>
@@ -5398,7 +5398,7 @@
         <v>168</v>
       </c>
       <c r="D134" s="2">
-        <v>45058.63375364583</v>
+        <v>45058.63375364699</v>
       </c>
       <c r="E134" t="s">
         <v>301</v>
@@ -5421,7 +5421,7 @@
         <v>168</v>
       </c>
       <c r="D135" s="2">
-        <v>45058.63375365741</v>
+        <v>45058.63375365861</v>
       </c>
       <c r="E135" t="s">
         <v>302</v>
@@ -5444,7 +5444,7 @@
         <v>168</v>
       </c>
       <c r="D136" s="2">
-        <v>45058.63375365741</v>
+        <v>45058.63375365861</v>
       </c>
       <c r="E136" t="s">
         <v>303</v>
@@ -5467,7 +5467,7 @@
         <v>168</v>
       </c>
       <c r="D137" s="2">
-        <v>45058.63375366898</v>
+        <v>45058.63375367007</v>
       </c>
       <c r="E137" t="s">
         <v>304</v>
@@ -5490,7 +5490,7 @@
         <v>168</v>
       </c>
       <c r="D138" s="2">
-        <v>45058.63375366898</v>
+        <v>45058.63375367007</v>
       </c>
       <c r="E138" t="s">
         <v>305</v>
@@ -5513,7 +5513,7 @@
         <v>168</v>
       </c>
       <c r="D139" s="2">
-        <v>45058.63375372685</v>
+        <v>45058.63375372779</v>
       </c>
       <c r="E139" t="s">
         <v>306</v>
@@ -5536,7 +5536,7 @@
         <v>168</v>
       </c>
       <c r="D140" s="2">
-        <v>45058.63375372685</v>
+        <v>45058.63375372779</v>
       </c>
       <c r="E140" t="s">
         <v>307</v>
@@ -5559,7 +5559,7 @@
         <v>168</v>
       </c>
       <c r="D141" s="2">
-        <v>45058.63375372685</v>
+        <v>45058.63375372779</v>
       </c>
       <c r="E141" t="s">
         <v>308</v>
@@ -5582,7 +5582,7 @@
         <v>168</v>
       </c>
       <c r="D142" s="2">
-        <v>45058.63375373842</v>
+        <v>45058.63375373933</v>
       </c>
       <c r="E142" t="s">
         <v>309</v>
@@ -5605,7 +5605,7 @@
         <v>168</v>
       </c>
       <c r="D143" s="2">
-        <v>45058.63375376158</v>
+        <v>45058.63375376242</v>
       </c>
       <c r="E143" t="s">
         <v>310</v>
@@ -5628,7 +5628,7 @@
         <v>168</v>
       </c>
       <c r="D144" s="2">
-        <v>45058.63375377315</v>
+        <v>45058.63375377396</v>
       </c>
       <c r="E144" t="s">
         <v>311</v>
@@ -5651,7 +5651,7 @@
         <v>168</v>
       </c>
       <c r="D145" s="2">
-        <v>45058.63375378472</v>
+        <v>45058.63375378551</v>
       </c>
       <c r="E145" t="s">
         <v>312</v>
@@ -5674,7 +5674,7 @@
         <v>168</v>
       </c>
       <c r="D146" s="2">
-        <v>45072.61835186343</v>
+        <v>45072.61835186704</v>
       </c>
       <c r="E146" t="s">
         <v>313</v>
@@ -5697,7 +5697,7 @@
         <v>168</v>
       </c>
       <c r="D147" s="2">
-        <v>45157.13994783565</v>
+        <v>45157.13994783762</v>
       </c>
       <c r="E147" t="s">
         <v>314</v>
@@ -5720,7 +5720,7 @@
         <v>168</v>
       </c>
       <c r="D148" s="2">
-        <v>45140.16262193287</v>
+        <v>45140.16262193116</v>
       </c>
       <c r="E148" t="s">
         <v>315</v>
@@ -5743,7 +5743,7 @@
         <v>168</v>
       </c>
       <c r="D149" s="2">
-        <v>45058.63375384259</v>
+        <v>45058.63375384322</v>
       </c>
       <c r="E149" t="s">
         <v>316</v>
@@ -5766,7 +5766,7 @@
         <v>168</v>
       </c>
       <c r="D150" s="2">
-        <v>45058.63375384259</v>
+        <v>45058.63375384322</v>
       </c>
       <c r="E150" t="s">
         <v>317</v>
@@ -5789,7 +5789,7 @@
         <v>168</v>
       </c>
       <c r="D151" s="2">
-        <v>45058.63375385417</v>
+        <v>45058.63375385477</v>
       </c>
       <c r="E151" t="s">
         <v>318</v>
@@ -5812,7 +5812,7 @@
         <v>168</v>
       </c>
       <c r="D152" s="2">
-        <v>45058.63375385417</v>
+        <v>45058.63375385477</v>
       </c>
       <c r="E152" t="s">
         <v>319</v>
@@ -5835,7 +5835,7 @@
         <v>168</v>
       </c>
       <c r="D153" s="2">
-        <v>45058.63375386574</v>
+        <v>45058.63375386631</v>
       </c>
       <c r="E153" t="s">
         <v>320</v>
@@ -5858,7 +5858,7 @@
         <v>168</v>
       </c>
       <c r="D154" s="2">
-        <v>45167.03392710648</v>
+        <v>45167.03392710358</v>
       </c>
       <c r="E154" t="s">
         <v>321</v>
@@ -5881,7 +5881,7 @@
         <v>168</v>
       </c>
       <c r="D155" s="2">
-        <v>45058.63375387732</v>
+        <v>45058.63375387785</v>
       </c>
       <c r="E155" t="s">
         <v>322</v>
@@ -5904,7 +5904,7 @@
         <v>168</v>
       </c>
       <c r="D156" s="2">
-        <v>45140.16262265046</v>
+        <v>45140.16262265118</v>
       </c>
       <c r="E156" t="s">
         <v>323</v>
@@ -5927,7 +5927,7 @@
         <v>168</v>
       </c>
       <c r="D157" s="2">
-        <v>45058.63375387732</v>
+        <v>45058.63375387785</v>
       </c>
       <c r="E157" t="s">
         <v>324</v>
@@ -5950,7 +5950,7 @@
         <v>168</v>
       </c>
       <c r="D158" s="2">
-        <v>45140.16262277777</v>
+        <v>45140.16262278055</v>
       </c>
       <c r="E158" t="s">
         <v>325</v>
@@ -5973,7 +5973,7 @@
         <v>168</v>
       </c>
       <c r="D159" s="2">
-        <v>45058.63375388889</v>
+        <v>45058.6337538894</v>
       </c>
       <c r="E159" t="s">
         <v>326</v>
@@ -5996,7 +5996,7 @@
         <v>168</v>
       </c>
       <c r="D160" s="2">
-        <v>45058.63375390046</v>
+        <v>45058.63375390094</v>
       </c>
       <c r="E160" t="s">
         <v>327</v>
@@ -6019,7 +6019,7 @@
         <v>168</v>
       </c>
       <c r="D161" s="2">
-        <v>45058.63375398148</v>
+        <v>45058.63375398174</v>
       </c>
       <c r="E161" t="s">
         <v>328</v>
@@ -6042,7 +6042,7 @@
         <v>168</v>
       </c>
       <c r="D162" s="2">
-        <v>45058.63375399305</v>
+        <v>45058.63375399329</v>
       </c>
       <c r="E162" t="s">
         <v>329</v>
